--- a/SEW_MTBF_optimization_1000h/withGUI/activity.xlsx
+++ b/SEW_MTBF_optimization_1000h/withGUI/activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\withGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485ED093-EABE-4FFB-B358-9DD3DA41710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B00027-080E-4B86-A334-7CEC7A3C8B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="16410" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Replacement time</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>ID activity</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,7 +123,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,21 +403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -422,8 +427,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -433,8 +444,14 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -445,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -456,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -467,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -478,135 +495,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>179.54486313883294</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>359.08972627766587</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>538.63458941649878</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>718.17945255533175</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>897.72431569416472</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>208.82900117458999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>417.65800234917998</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>626.48700352377</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>835.31600469835996</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>548.35674508332158</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>627.93813841261101</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>732.32997259267916</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>5</v>
       </c>
     </row>

--- a/SEW_MTBF_optimization_1000h/withGUI/activity.xlsx
+++ b/SEW_MTBF_optimization_1000h/withGUI/activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\withGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B00027-080E-4B86-A334-7CEC7A3C8B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6385144-779C-4357-9456-F12220F64B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="750" windowWidth="16410" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26700" yWindow="1095" windowWidth="16410" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>173.29823615109365</v>
+        <v>173.298</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>346.59647230218729</v>
+        <v>346.596</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>519.89470845328094</v>
+        <v>519.89499999999998</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>693.19294460437459</v>
+        <v>693.19299999999998</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>866.49118075546824</v>
+        <v>866.49099999999999</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>179.54486313883294</v>
+        <v>179.54499999999999</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>359.08972627766587</v>
+        <v>359.09</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>538.63458941649878</v>
+        <v>538.63499999999999</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>718.17945255533175</v>
+        <v>718.17899999999997</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>897.72431569416472</v>
+        <v>897.72400000000005</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>208.82900117458999</v>
+        <v>208.82900000000001</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>417.65800234917998</v>
+        <v>417.65800000000002</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>626.48700352377</v>
+        <v>626.48699999999997</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>835.31600469835996</v>
+        <v>835.31600000000003</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>548.35674508332158</v>
+        <v>548.35699999999997</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>627.93813841261101</v>
+        <v>627.93799999999999</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>732.32997259267916</v>
+        <v>732.33</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
